--- a/final-framework-testng/Signup_Student.xlsx
+++ b/final-framework-testng/Signup_Student.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ABF91A-548E-48A1-9A97-06EC98B2716F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A13D90-324B-4F6A-BBF6-FAB2E81D6CC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,16 +79,16 @@
     <t>Test8@123</t>
   </si>
   <si>
-    <t>TestSignup14</t>
-  </si>
-  <si>
-    <t>TestSignup15</t>
-  </si>
-  <si>
-    <t>TestSignup16</t>
-  </si>
-  <si>
-    <t>TestSignup17</t>
+    <t>TestSignupa17</t>
+  </si>
+  <si>
+    <t>TestSignupa14</t>
+  </si>
+  <si>
+    <t>TestSignupa15</t>
+  </si>
+  <si>
+    <t>TestSignupa16</t>
   </si>
 </sst>
 </file>
@@ -439,12 +439,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -490,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>15</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -516,7 +516,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -542,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -568,7 +568,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>

--- a/final-framework-testng/Signup_Student.xlsx
+++ b/final-framework-testng/Signup_Student.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A13D90-324B-4F6A-BBF6-FAB2E81D6CC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35D8B8C-9C90-491B-A30A-4DA852FDEC1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,16 +79,16 @@
     <t>Test8@123</t>
   </si>
   <si>
-    <t>TestSignupa17</t>
-  </si>
-  <si>
-    <t>TestSignupa14</t>
-  </si>
-  <si>
-    <t>TestSignupa15</t>
-  </si>
-  <si>
-    <t>TestSignupa16</t>
+    <t>TestSignupc17</t>
+  </si>
+  <si>
+    <t>TestSignupc14</t>
+  </si>
+  <si>
+    <t>TestSignupc15</t>
+  </si>
+  <si>
+    <t>TestSignupc16</t>
   </si>
 </sst>
 </file>
